--- a/data/pca/factorExposure/factorExposure_2016-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01790185861285656</v>
+        <v>0.01608485055247487</v>
       </c>
       <c r="C2">
-        <v>0.04494795737972685</v>
+        <v>-0.04337717364395553</v>
       </c>
       <c r="D2">
-        <v>0.0212831588753828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05441919649974622</v>
+      </c>
+      <c r="E2">
+        <v>-0.01805835460884967</v>
+      </c>
+      <c r="F2">
+        <v>-0.08958966588857294</v>
+      </c>
+      <c r="G2">
+        <v>0.03701681532072372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05594136089010589</v>
+        <v>0.03547919990545493</v>
       </c>
       <c r="C3">
-        <v>0.1027847836159979</v>
+        <v>-0.0868107447403732</v>
       </c>
       <c r="D3">
-        <v>0.02486428429521754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09620813942677568</v>
+      </c>
+      <c r="E3">
+        <v>-0.02560506015012661</v>
+      </c>
+      <c r="F3">
+        <v>-0.08850229876526503</v>
+      </c>
+      <c r="G3">
+        <v>-0.06863737903043569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06241859458121441</v>
+        <v>0.05873578097299923</v>
       </c>
       <c r="C4">
-        <v>0.06627972630892107</v>
+        <v>-0.06124709067023745</v>
       </c>
       <c r="D4">
-        <v>0.0004120228410172065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05443923395277395</v>
+      </c>
+      <c r="E4">
+        <v>-0.01281545921234344</v>
+      </c>
+      <c r="F4">
+        <v>-0.09562895362793125</v>
+      </c>
+      <c r="G4">
+        <v>-0.02526833084240205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02625993751999031</v>
+        <v>0.03566036496840926</v>
       </c>
       <c r="C6">
-        <v>0.05122504331131297</v>
+        <v>-0.03837907582930324</v>
       </c>
       <c r="D6">
-        <v>0.00857611588426581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06427689363587936</v>
+      </c>
+      <c r="E6">
+        <v>-0.01570850228009009</v>
+      </c>
+      <c r="F6">
+        <v>-0.08819265560735684</v>
+      </c>
+      <c r="G6">
+        <v>-0.005526133984313388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0218719946188887</v>
+        <v>0.02235687327488975</v>
       </c>
       <c r="C7">
-        <v>0.04564737733440324</v>
+        <v>-0.03794179793163936</v>
       </c>
       <c r="D7">
-        <v>-0.01453275144347427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.02885508019630156</v>
+      </c>
+      <c r="E7">
+        <v>-0.0003831424475580715</v>
+      </c>
+      <c r="F7">
+        <v>-0.1170362061063385</v>
+      </c>
+      <c r="G7">
+        <v>0.01173422935520499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0009927152157519139</v>
+        <v>0.006883614943457105</v>
       </c>
       <c r="C8">
-        <v>0.01045902879957352</v>
+        <v>-0.01997908151216468</v>
       </c>
       <c r="D8">
-        <v>0.01497943411316152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03327123704328096</v>
+      </c>
+      <c r="E8">
+        <v>-0.01213708319321967</v>
+      </c>
+      <c r="F8">
+        <v>-0.06960599394751109</v>
+      </c>
+      <c r="G8">
+        <v>-0.004706151057620164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02916029427893241</v>
+        <v>0.03748801438204525</v>
       </c>
       <c r="C9">
-        <v>0.04595297588045467</v>
+        <v>-0.04801219902688408</v>
       </c>
       <c r="D9">
-        <v>-0.005414167977331739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03701751303088677</v>
+      </c>
+      <c r="E9">
+        <v>-0.009206349786759447</v>
+      </c>
+      <c r="F9">
+        <v>-0.09971379900616308</v>
+      </c>
+      <c r="G9">
+        <v>-0.007883462521544891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08281326541996518</v>
+        <v>0.09402665843474461</v>
       </c>
       <c r="C10">
-        <v>-0.19926826560755</v>
+        <v>0.1958698864435923</v>
       </c>
       <c r="D10">
-        <v>0.02317097257843036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01149428945968444</v>
+      </c>
+      <c r="E10">
+        <v>-0.03387986635451844</v>
+      </c>
+      <c r="F10">
+        <v>-0.05237163299062948</v>
+      </c>
+      <c r="G10">
+        <v>0.0008672902256378375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0422737417434152</v>
+        <v>0.03805756496552243</v>
       </c>
       <c r="C11">
-        <v>0.05557306150782503</v>
+        <v>-0.05247544743309948</v>
       </c>
       <c r="D11">
-        <v>-0.01184954633161435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0245176287977747</v>
+      </c>
+      <c r="E11">
+        <v>0.01317030898130144</v>
+      </c>
+      <c r="F11">
+        <v>-0.06799420140252166</v>
+      </c>
+      <c r="G11">
+        <v>-0.005334424511190647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.036058753502553</v>
+        <v>0.03852719877197896</v>
       </c>
       <c r="C12">
-        <v>0.04592021396166</v>
+        <v>-0.04708493309644354</v>
       </c>
       <c r="D12">
-        <v>-0.0104288717285655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01802333741866443</v>
+      </c>
+      <c r="E12">
+        <v>0.003590642787768786</v>
+      </c>
+      <c r="F12">
+        <v>-0.06985349630002569</v>
+      </c>
+      <c r="G12">
+        <v>-0.0004641817471252549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0117138677980816</v>
+        <v>0.0149096013241215</v>
       </c>
       <c r="C13">
-        <v>0.04193606303239028</v>
+        <v>-0.04143976235440845</v>
       </c>
       <c r="D13">
-        <v>0.01627043897256043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06060544931631592</v>
+      </c>
+      <c r="E13">
+        <v>-0.02844084872955541</v>
+      </c>
+      <c r="F13">
+        <v>-0.1332729322934479</v>
+      </c>
+      <c r="G13">
+        <v>-0.006345747002741988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006645927396708991</v>
+        <v>0.00830856236657578</v>
       </c>
       <c r="C14">
-        <v>0.03059428894385356</v>
+        <v>-0.02817476514944628</v>
       </c>
       <c r="D14">
-        <v>-0.01363346948989329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02250104690522291</v>
+      </c>
+      <c r="E14">
+        <v>-0.007082692045724367</v>
+      </c>
+      <c r="F14">
+        <v>-0.104074688500815</v>
+      </c>
+      <c r="G14">
+        <v>0.01605567737637387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001004467277238703</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0004350283011141073</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001840299472020489</v>
+      </c>
+      <c r="E15">
+        <v>0.001004116715098686</v>
+      </c>
+      <c r="F15">
+        <v>-0.001296837364724858</v>
+      </c>
+      <c r="G15">
+        <v>0.0007910925223350426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03565617659703466</v>
+        <v>0.03522145553210311</v>
       </c>
       <c r="C16">
-        <v>0.04059679272388936</v>
+        <v>-0.04513184938247227</v>
       </c>
       <c r="D16">
-        <v>-0.002351235360956462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02292005584966577</v>
+      </c>
+      <c r="E16">
+        <v>-0.002558748979404397</v>
+      </c>
+      <c r="F16">
+        <v>-0.07336664106898162</v>
+      </c>
+      <c r="G16">
+        <v>0.009471246780378945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03247521688076257</v>
+        <v>0.020539253013047</v>
       </c>
       <c r="C19">
-        <v>0.05975452853002522</v>
+        <v>-0.04967860035421297</v>
       </c>
       <c r="D19">
-        <v>0.03444706261462271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1000999763171296</v>
+      </c>
+      <c r="E19">
+        <v>-0.0330242491056446</v>
+      </c>
+      <c r="F19">
+        <v>-0.136790667902504</v>
+      </c>
+      <c r="G19">
+        <v>0.02509119073599687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01376715185014722</v>
+        <v>0.01628423352575454</v>
       </c>
       <c r="C20">
-        <v>0.04484369418583344</v>
+        <v>-0.03879473487116492</v>
       </c>
       <c r="D20">
-        <v>0.02140105880988518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04462957187811899</v>
+      </c>
+      <c r="E20">
+        <v>-0.03482291182742989</v>
+      </c>
+      <c r="F20">
+        <v>-0.1011905728309917</v>
+      </c>
+      <c r="G20">
+        <v>0.009079094057555281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007845949242571303</v>
+        <v>0.01019050021117792</v>
       </c>
       <c r="C21">
-        <v>0.04011362908272727</v>
+        <v>-0.04061627280708737</v>
       </c>
       <c r="D21">
-        <v>0.02530065081844723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06137106217118079</v>
+      </c>
+      <c r="E21">
+        <v>-0.02951534021318452</v>
+      </c>
+      <c r="F21">
+        <v>-0.148399431305052</v>
+      </c>
+      <c r="G21">
+        <v>0.007207321357068874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00463466820555102</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01493229095807263</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02490398822822447</v>
+      </c>
+      <c r="E22">
+        <v>-0.001615170248214956</v>
+      </c>
+      <c r="F22">
+        <v>-0.02022847082727637</v>
+      </c>
+      <c r="G22">
+        <v>-0.03288831618102117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004688594426471037</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01488182255175132</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02465548193764842</v>
+      </c>
+      <c r="E23">
+        <v>-0.001929585249724683</v>
+      </c>
+      <c r="F23">
+        <v>-0.0199527502876492</v>
+      </c>
+      <c r="G23">
+        <v>-0.03291202834055926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02930380965094628</v>
+        <v>0.03361753863048635</v>
       </c>
       <c r="C24">
-        <v>0.04745734646143619</v>
+        <v>-0.05208854059264758</v>
       </c>
       <c r="D24">
-        <v>-0.01213518773450663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01929206021128643</v>
+      </c>
+      <c r="E24">
+        <v>0.003827144384235086</v>
+      </c>
+      <c r="F24">
+        <v>-0.07753395970665536</v>
+      </c>
+      <c r="G24">
+        <v>0.005186652963582463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04709318291404803</v>
+        <v>0.04434391925217222</v>
       </c>
       <c r="C25">
-        <v>0.05581226609626586</v>
+        <v>-0.0565733873934973</v>
       </c>
       <c r="D25">
-        <v>-0.02323287582775446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01547337486745802</v>
+      </c>
+      <c r="E25">
+        <v>0.005977180054540189</v>
+      </c>
+      <c r="F25">
+        <v>-0.08432810014006292</v>
+      </c>
+      <c r="G25">
+        <v>-0.01257878135982379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.009687391509338384</v>
+        <v>0.01552277695600022</v>
       </c>
       <c r="C26">
-        <v>0.01273791222693124</v>
+        <v>-0.01333286624690007</v>
       </c>
       <c r="D26">
-        <v>-0.001228113995778695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01664560027562693</v>
+      </c>
+      <c r="E26">
+        <v>-0.009417372633358763</v>
+      </c>
+      <c r="F26">
+        <v>-0.08129638839680604</v>
+      </c>
+      <c r="G26">
+        <v>0.02188454930766334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09678176641805816</v>
+        <v>0.1270646679369727</v>
       </c>
       <c r="C28">
-        <v>-0.2264461798259178</v>
+        <v>0.2458866995094042</v>
       </c>
       <c r="D28">
-        <v>0.01278712526562207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007683066185296504</v>
+      </c>
+      <c r="E28">
+        <v>-0.03681454590099741</v>
+      </c>
+      <c r="F28">
+        <v>-0.06334653467167464</v>
+      </c>
+      <c r="G28">
+        <v>-0.005120626587734664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01225298242639849</v>
+        <v>0.009286869454133557</v>
       </c>
       <c r="C29">
-        <v>0.02193731348716001</v>
+        <v>-0.0232969598371743</v>
       </c>
       <c r="D29">
-        <v>-0.01100459490353175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01316478798525838</v>
+      </c>
+      <c r="E29">
+        <v>-0.01172457255060482</v>
+      </c>
+      <c r="F29">
+        <v>-0.098738557678129</v>
+      </c>
+      <c r="G29">
+        <v>0.003184664158260893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04107834066554029</v>
+        <v>0.04013361093347258</v>
       </c>
       <c r="C30">
-        <v>0.07309127638778297</v>
+        <v>-0.06475762797724323</v>
       </c>
       <c r="D30">
-        <v>-0.002083199113075692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09096131870763315</v>
+      </c>
+      <c r="E30">
+        <v>0.01402130366365499</v>
+      </c>
+      <c r="F30">
+        <v>-0.1095388812946882</v>
+      </c>
+      <c r="G30">
+        <v>0.02953717459076335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04333037897941933</v>
+        <v>0.05808728282893932</v>
       </c>
       <c r="C31">
-        <v>0.03088662667000177</v>
+        <v>-0.04393347927495373</v>
       </c>
       <c r="D31">
-        <v>-0.01137666070913875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00310394471965072</v>
+      </c>
+      <c r="E31">
+        <v>-0.03393368991621285</v>
+      </c>
+      <c r="F31">
+        <v>-0.09347552718606558</v>
+      </c>
+      <c r="G31">
+        <v>-0.02927607486522519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008136795088575503</v>
+        <v>0.005192585372121642</v>
       </c>
       <c r="C32">
-        <v>0.03486930230747343</v>
+        <v>-0.02796097230733139</v>
       </c>
       <c r="D32">
-        <v>0.01094662365209617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04311891190059376</v>
+      </c>
+      <c r="E32">
+        <v>0.002794077014354296</v>
+      </c>
+      <c r="F32">
+        <v>-0.07817550337367374</v>
+      </c>
+      <c r="G32">
+        <v>0.01167137892362541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03128266096154802</v>
+        <v>0.0279935618931185</v>
       </c>
       <c r="C33">
-        <v>0.05715545903402324</v>
+        <v>-0.04891293398555694</v>
       </c>
       <c r="D33">
-        <v>0.003852739336060037</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06998546598522982</v>
+      </c>
+      <c r="E33">
+        <v>-0.007805330318695681</v>
+      </c>
+      <c r="F33">
+        <v>-0.1515594198262355</v>
+      </c>
+      <c r="G33">
+        <v>-0.004542546673483832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05288327732973012</v>
+        <v>0.04398233908118308</v>
       </c>
       <c r="C34">
-        <v>0.05428799911838651</v>
+        <v>-0.06226419107324178</v>
       </c>
       <c r="D34">
-        <v>-0.01842584137425555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02273735906501585</v>
+      </c>
+      <c r="E34">
+        <v>0.01972988584913127</v>
+      </c>
+      <c r="F34">
+        <v>-0.07701092974510107</v>
+      </c>
+      <c r="G34">
+        <v>-0.0002273166785105925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01042418084596661</v>
+        <v>0.01632393173376109</v>
       </c>
       <c r="C36">
-        <v>0.007959126556626854</v>
+        <v>-0.008477630753985298</v>
       </c>
       <c r="D36">
-        <v>-0.006317359944851956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0198844102480001</v>
+      </c>
+      <c r="E36">
+        <v>-0.01387497056738511</v>
+      </c>
+      <c r="F36">
+        <v>-0.09581592334654652</v>
+      </c>
+      <c r="G36">
+        <v>0.00064642744312259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03786071676860322</v>
+        <v>0.02987924444576706</v>
       </c>
       <c r="C38">
-        <v>0.02178972341073245</v>
+        <v>-0.02145582446621993</v>
       </c>
       <c r="D38">
-        <v>-0.009872430906315203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02095209421406607</v>
+      </c>
+      <c r="E38">
+        <v>-0.01499374877047284</v>
+      </c>
+      <c r="F38">
+        <v>-0.0856789020057775</v>
+      </c>
+      <c r="G38">
+        <v>-0.004026782023050312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0383903196901472</v>
+        <v>0.03877847874497886</v>
       </c>
       <c r="C39">
-        <v>0.08373989625987241</v>
+        <v>-0.07381279305001361</v>
       </c>
       <c r="D39">
-        <v>0.004637950489357226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04691072631737949</v>
+      </c>
+      <c r="E39">
+        <v>0.01345079541588569</v>
+      </c>
+      <c r="F39">
+        <v>-0.08538783440674851</v>
+      </c>
+      <c r="G39">
+        <v>0.03466502290103208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01746541674241887</v>
+        <v>0.01904510396944771</v>
       </c>
       <c r="C40">
-        <v>0.02630352468954789</v>
+        <v>-0.03758472692915714</v>
       </c>
       <c r="D40">
-        <v>0.01916948408763025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0338647252558486</v>
+      </c>
+      <c r="E40">
+        <v>-0.03441920086849098</v>
+      </c>
+      <c r="F40">
+        <v>-0.118706920377109</v>
+      </c>
+      <c r="G40">
+        <v>-0.03782007473773235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01094125194324023</v>
+        <v>0.01909920985004052</v>
       </c>
       <c r="C41">
-        <v>0.0001010907495500919</v>
+        <v>0.0001224915829317026</v>
       </c>
       <c r="D41">
-        <v>-0.00779733402670985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01570255139409363</v>
+      </c>
+      <c r="E41">
+        <v>-0.01792768751806959</v>
+      </c>
+      <c r="F41">
+        <v>-0.08621523987869394</v>
+      </c>
+      <c r="G41">
+        <v>0.006430106246492253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01115596569144017</v>
+        <v>0.006479372244292552</v>
       </c>
       <c r="C42">
-        <v>0.03084328021220303</v>
+        <v>-0.01667451573518837</v>
       </c>
       <c r="D42">
-        <v>0.02897000082574964</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0124415591375706</v>
+      </c>
+      <c r="E42">
+        <v>-0.01611193953018925</v>
+      </c>
+      <c r="F42">
+        <v>0.02014016850586283</v>
+      </c>
+      <c r="G42">
+        <v>0.0214242000336424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03386504215776178</v>
+        <v>0.03348493128935926</v>
       </c>
       <c r="C43">
-        <v>0.01194352100955408</v>
+        <v>-0.01375708744433473</v>
       </c>
       <c r="D43">
-        <v>-0.006513756461730204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03439581776500047</v>
+      </c>
+      <c r="E43">
+        <v>-0.01488079590004561</v>
+      </c>
+      <c r="F43">
+        <v>-0.1091667718193584</v>
+      </c>
+      <c r="G43">
+        <v>-0.01503386268980027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02153869596560652</v>
+        <v>0.01778649823494069</v>
       </c>
       <c r="C44">
-        <v>0.05505639469593976</v>
+        <v>-0.05450335214158202</v>
       </c>
       <c r="D44">
-        <v>0.003828562544308263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03602597424481251</v>
+      </c>
+      <c r="E44">
+        <v>-0.02745066911307047</v>
+      </c>
+      <c r="F44">
+        <v>-0.1101328012655915</v>
+      </c>
+      <c r="G44">
+        <v>0.0155535839239917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0008228568147349286</v>
+        <v>0.01114678127290001</v>
       </c>
       <c r="C46">
-        <v>0.01447324876231422</v>
+        <v>-0.01910024804734598</v>
       </c>
       <c r="D46">
-        <v>-0.01728660058907747</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.005537880348459804</v>
+      </c>
+      <c r="E46">
+        <v>-0.01750167199942549</v>
+      </c>
+      <c r="F46">
+        <v>-0.1087744317737954</v>
+      </c>
+      <c r="G46">
+        <v>0.01001935795647454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07931496997329743</v>
+        <v>0.08846113354263206</v>
       </c>
       <c r="C47">
-        <v>0.06827778809815863</v>
+        <v>-0.07134035734261564</v>
       </c>
       <c r="D47">
-        <v>-0.006645800024712136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008483398160239309</v>
+      </c>
+      <c r="E47">
+        <v>-0.04079384830877113</v>
+      </c>
+      <c r="F47">
+        <v>-0.09406145217386355</v>
+      </c>
+      <c r="G47">
+        <v>-0.03182359013692588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01793644775289181</v>
+        <v>0.01797631739055798</v>
       </c>
       <c r="C48">
-        <v>0.01065638048093659</v>
+        <v>-0.01535701804875266</v>
       </c>
       <c r="D48">
-        <v>-0.009696201198547657</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0136829139034786</v>
+      </c>
+      <c r="E48">
+        <v>-0.02372658419782324</v>
+      </c>
+      <c r="F48">
+        <v>-0.107091944257433</v>
+      </c>
+      <c r="G48">
+        <v>0.005447427564120241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08757238934670374</v>
+        <v>0.07573220260609592</v>
       </c>
       <c r="C50">
-        <v>0.06711508570514697</v>
+        <v>-0.06690792644884125</v>
       </c>
       <c r="D50">
-        <v>-0.01859555839903379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001635555823935517</v>
+      </c>
+      <c r="E50">
+        <v>-0.03496501968672587</v>
+      </c>
+      <c r="F50">
+        <v>-0.09305648748021492</v>
+      </c>
+      <c r="G50">
+        <v>-0.0665709294649586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01753461528565894</v>
+        <v>0.01237980437516998</v>
       </c>
       <c r="C51">
-        <v>0.03925131174664871</v>
+        <v>-0.03335030085052584</v>
       </c>
       <c r="D51">
-        <v>-0.008826120421913089</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04159420866691813</v>
+      </c>
+      <c r="E51">
+        <v>0.004557548500286601</v>
+      </c>
+      <c r="F51">
+        <v>-0.09865922235982445</v>
+      </c>
+      <c r="G51">
+        <v>0.02060096222545847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.09860737166297043</v>
+        <v>0.09224267445885651</v>
       </c>
       <c r="C53">
-        <v>0.06923705325706182</v>
+        <v>-0.08561850109107227</v>
       </c>
       <c r="D53">
-        <v>-0.02832484410107716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03124846967137946</v>
+      </c>
+      <c r="E53">
+        <v>-0.04883863030059371</v>
+      </c>
+      <c r="F53">
+        <v>-0.1011227397805546</v>
+      </c>
+      <c r="G53">
+        <v>-0.0396139643136765</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03062996946201121</v>
+        <v>0.03258917925465849</v>
       </c>
       <c r="C54">
-        <v>0.006276296260052814</v>
+        <v>-0.02235335760762266</v>
       </c>
       <c r="D54">
-        <v>-0.001817765636455713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02422100492816144</v>
+      </c>
+      <c r="E54">
+        <v>-0.01299969635290778</v>
+      </c>
+      <c r="F54">
+        <v>-0.1067392540350918</v>
+      </c>
+      <c r="G54">
+        <v>0.004181719214631815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0746540568517864</v>
+        <v>0.08313479654524104</v>
       </c>
       <c r="C55">
-        <v>0.06474269136685232</v>
+        <v>-0.068572287764157</v>
       </c>
       <c r="D55">
-        <v>-0.02644749102080675</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03677702204504219</v>
+      </c>
+      <c r="E55">
+        <v>-0.04544294968320508</v>
+      </c>
+      <c r="F55">
+        <v>-0.06780297530488368</v>
+      </c>
+      <c r="G55">
+        <v>-0.03495878021000754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1522294301482642</v>
+        <v>0.1452758748044283</v>
       </c>
       <c r="C56">
-        <v>0.08989729329334931</v>
+        <v>-0.101435669232417</v>
       </c>
       <c r="D56">
-        <v>-0.02360517758512972</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03855353413686287</v>
+      </c>
+      <c r="E56">
+        <v>-0.05119416084775039</v>
+      </c>
+      <c r="F56">
+        <v>-0.05932720688457659</v>
+      </c>
+      <c r="G56">
+        <v>-0.04255954473096312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.004357654004509236</v>
+        <v>0.001726824571947065</v>
       </c>
       <c r="C57">
-        <v>0.007614276608869026</v>
+        <v>-0.003682829024220341</v>
       </c>
       <c r="D57">
-        <v>0.032356070161115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02674306259410832</v>
+      </c>
+      <c r="E57">
+        <v>-0.005841470797260761</v>
+      </c>
+      <c r="F57">
+        <v>-0.01013941465198186</v>
+      </c>
+      <c r="G57">
+        <v>0.002882873172889769</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.06515428282108703</v>
+        <v>0.03741801220942368</v>
       </c>
       <c r="C58">
-        <v>0.08102826865327771</v>
+        <v>-0.04061989564089849</v>
       </c>
       <c r="D58">
-        <v>0.9729018802629842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6772010521711295</v>
+      </c>
+      <c r="E58">
+        <v>-0.6269154756680703</v>
+      </c>
+      <c r="F58">
+        <v>0.3146548353916898</v>
+      </c>
+      <c r="G58">
+        <v>-0.02831909254227535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1426607885862745</v>
+        <v>0.1475003602134012</v>
       </c>
       <c r="C59">
-        <v>-0.2209643584904624</v>
+        <v>0.2037343992993408</v>
       </c>
       <c r="D59">
-        <v>0.01309420459171657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02159962573681801</v>
+      </c>
+      <c r="E59">
+        <v>-0.01494867969919539</v>
+      </c>
+      <c r="F59">
+        <v>-0.03713972811433101</v>
+      </c>
+      <c r="G59">
+        <v>0.0246933404596508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3109424342674901</v>
+        <v>0.2836899410355838</v>
       </c>
       <c r="C60">
-        <v>0.0863995795829654</v>
+        <v>-0.09143818939760201</v>
       </c>
       <c r="D60">
-        <v>-0.008841365256986346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1476235865992009</v>
+      </c>
+      <c r="E60">
+        <v>0.2934279279839289</v>
+      </c>
+      <c r="F60">
+        <v>0.1475400840162798</v>
+      </c>
+      <c r="G60">
+        <v>-0.06498861074226452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03662517489319474</v>
+        <v>0.04169618096641078</v>
       </c>
       <c r="C61">
-        <v>0.06213602678680141</v>
+        <v>-0.06331701921181344</v>
       </c>
       <c r="D61">
-        <v>0.00227924563412689</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03803403322897805</v>
+      </c>
+      <c r="E61">
+        <v>0.003502047227278705</v>
+      </c>
+      <c r="F61">
+        <v>-0.08585145424991208</v>
+      </c>
+      <c r="G61">
+        <v>-0.0003940177406621188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01719666227435512</v>
+        <v>0.01758734251002339</v>
       </c>
       <c r="C63">
-        <v>0.02759522911149819</v>
+        <v>-0.0288522939402749</v>
       </c>
       <c r="D63">
-        <v>-0.01735317030676755</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01390345216609229</v>
+      </c>
+      <c r="E63">
+        <v>-0.01430288261260454</v>
+      </c>
+      <c r="F63">
+        <v>-0.0907296675690891</v>
+      </c>
+      <c r="G63">
+        <v>-0.0186133159255291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04857657381331334</v>
+        <v>0.05460024038611189</v>
       </c>
       <c r="C64">
-        <v>0.02859808104468731</v>
+        <v>-0.04660958918722</v>
       </c>
       <c r="D64">
-        <v>-0.01475533616394467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008906692806462009</v>
+      </c>
+      <c r="E64">
+        <v>0.00162553907305948</v>
+      </c>
+      <c r="F64">
+        <v>-0.09415986682271454</v>
+      </c>
+      <c r="G64">
+        <v>0.01698537343447223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08652532185471909</v>
+        <v>0.06879878332927233</v>
       </c>
       <c r="C65">
-        <v>0.0624336483955456</v>
+        <v>-0.04237632113014184</v>
       </c>
       <c r="D65">
-        <v>0.006220001381399417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0746537964248111</v>
+      </c>
+      <c r="E65">
+        <v>0.009629687944217287</v>
+      </c>
+      <c r="F65">
+        <v>-0.03735754001409741</v>
+      </c>
+      <c r="G65">
+        <v>0.005989436826106235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0613819792575841</v>
+        <v>0.0523416263638426</v>
       </c>
       <c r="C66">
-        <v>0.1193726931370509</v>
+        <v>-0.09838920450822884</v>
       </c>
       <c r="D66">
-        <v>0.008618275841062497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07056522809981858</v>
+      </c>
+      <c r="E66">
+        <v>0.01619006675781689</v>
+      </c>
+      <c r="F66">
+        <v>-0.08942096099976719</v>
+      </c>
+      <c r="G66">
+        <v>0.01587757227604112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0635480681455234</v>
+        <v>0.05234482768670302</v>
       </c>
       <c r="C67">
-        <v>0.02616444810508355</v>
+        <v>-0.02669192594917421</v>
       </c>
       <c r="D67">
-        <v>-0.0165470197080316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007335727511537095</v>
+      </c>
+      <c r="E67">
+        <v>-0.007408062421929783</v>
+      </c>
+      <c r="F67">
+        <v>-0.06985647340046985</v>
+      </c>
+      <c r="G67">
+        <v>-0.0102928051590297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1207499532716127</v>
+        <v>0.1487298937974697</v>
       </c>
       <c r="C68">
-        <v>-0.2881915871080316</v>
+        <v>0.268005958091218</v>
       </c>
       <c r="D68">
-        <v>0.02810636053879935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.008811426467902738</v>
+      </c>
+      <c r="E68">
+        <v>-0.04329274165551144</v>
+      </c>
+      <c r="F68">
+        <v>-0.02301863389204407</v>
+      </c>
+      <c r="G68">
+        <v>0.004059635167510198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08573483152650037</v>
+        <v>0.0876679826296153</v>
       </c>
       <c r="C69">
-        <v>0.06604941559722981</v>
+        <v>-0.07842610241943063</v>
       </c>
       <c r="D69">
-        <v>-0.03353799840513707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01223937127092424</v>
+      </c>
+      <c r="E69">
+        <v>-0.01386435153967826</v>
+      </c>
+      <c r="F69">
+        <v>-0.09889614268999281</v>
+      </c>
+      <c r="G69">
+        <v>-0.005060210068228336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1234962210022413</v>
+        <v>0.1381205045817729</v>
       </c>
       <c r="C71">
-        <v>-0.2400441217594835</v>
+        <v>0.2377168897384922</v>
       </c>
       <c r="D71">
-        <v>0.02823497884720811</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02136090465593299</v>
+      </c>
+      <c r="E71">
+        <v>-0.0434325917172138</v>
+      </c>
+      <c r="F71">
+        <v>-0.06729523742689406</v>
+      </c>
+      <c r="G71">
+        <v>-0.0146532608244672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07794061107030915</v>
+        <v>0.08896215568080575</v>
       </c>
       <c r="C72">
-        <v>0.05736845565820858</v>
+        <v>-0.05675413261988583</v>
       </c>
       <c r="D72">
-        <v>-0.04591672101307594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.00557766459309802</v>
+      </c>
+      <c r="E72">
+        <v>0.02228531708688089</v>
+      </c>
+      <c r="F72">
+        <v>-0.0793209019380316</v>
+      </c>
+      <c r="G72">
+        <v>-0.008639777896118483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4392574567962377</v>
+        <v>0.3567776550394606</v>
       </c>
       <c r="C73">
-        <v>0.08490339907525001</v>
+        <v>-0.0703248739117777</v>
       </c>
       <c r="D73">
-        <v>0.007642748228716331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3303276647180377</v>
+      </c>
+      <c r="E73">
+        <v>0.5297632287594471</v>
+      </c>
+      <c r="F73">
+        <v>0.3117149994042612</v>
+      </c>
+      <c r="G73">
+        <v>-0.1601360054076391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1161956250457363</v>
+        <v>0.111792207421464</v>
       </c>
       <c r="C74">
-        <v>0.1157496658702413</v>
+        <v>-0.1036845211058733</v>
       </c>
       <c r="D74">
-        <v>-0.02356503166043936</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01621232699814463</v>
+      </c>
+      <c r="E74">
+        <v>-0.06280517663130182</v>
+      </c>
+      <c r="F74">
+        <v>-0.07779142610648127</v>
+      </c>
+      <c r="G74">
+        <v>-0.05604278224081063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.263052543005282</v>
+        <v>0.2590273757705043</v>
       </c>
       <c r="C75">
-        <v>0.1202102055055364</v>
+        <v>-0.133636445573783</v>
       </c>
       <c r="D75">
-        <v>-0.03690794138944923</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1028083276502104</v>
+      </c>
+      <c r="E75">
+        <v>-0.1199466497112044</v>
+      </c>
+      <c r="F75">
+        <v>-0.02856466157977732</v>
+      </c>
+      <c r="G75">
+        <v>-0.06257046815155634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.118182152632101</v>
+        <v>0.1303481884919614</v>
       </c>
       <c r="C76">
-        <v>0.1012896440372985</v>
+        <v>-0.1023139411086727</v>
       </c>
       <c r="D76">
-        <v>-0.0305283865011063</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04593427523014604</v>
+      </c>
+      <c r="E76">
+        <v>-0.08104643171750343</v>
+      </c>
+      <c r="F76">
+        <v>-0.08036671013496043</v>
+      </c>
+      <c r="G76">
+        <v>-0.04529838195232197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07064736892160102</v>
+        <v>0.06834245911354442</v>
       </c>
       <c r="C77">
-        <v>0.05850394001246702</v>
+        <v>-0.06246262157983588</v>
       </c>
       <c r="D77">
-        <v>0.02763018008415811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05696272366944642</v>
+      </c>
+      <c r="E77">
+        <v>-0.03817790810429018</v>
+      </c>
+      <c r="F77">
+        <v>-0.0997645217065925</v>
+      </c>
+      <c r="G77">
+        <v>0.1457394530445408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0436080734812096</v>
+        <v>0.04300657044431899</v>
       </c>
       <c r="C78">
-        <v>0.04878964243674876</v>
+        <v>-0.05428156434806065</v>
       </c>
       <c r="D78">
-        <v>0.004277641173963588</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05841133755698778</v>
+      </c>
+      <c r="E78">
+        <v>0.01934922309798118</v>
+      </c>
+      <c r="F78">
+        <v>-0.09674163497294178</v>
+      </c>
+      <c r="G78">
+        <v>0.01217819576320925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.006125793197081897</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02594544718649087</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02007606125290057</v>
+      </c>
+      <c r="E79">
+        <v>-0.03217080239443139</v>
+      </c>
+      <c r="F79">
+        <v>-0.03970259976250966</v>
+      </c>
+      <c r="G79">
+        <v>-0.02582398921543096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04868813434122445</v>
+        <v>0.03958978337956846</v>
       </c>
       <c r="C80">
-        <v>0.05712096535121362</v>
+        <v>-0.04705717186125261</v>
       </c>
       <c r="D80">
-        <v>0.01727691025639339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04431783403471353</v>
+      </c>
+      <c r="E80">
+        <v>-0.001281475260158839</v>
+      </c>
+      <c r="F80">
+        <v>-0.03387451261842066</v>
+      </c>
+      <c r="G80">
+        <v>0.04748239185949291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1386621152993772</v>
+        <v>0.1427954113829316</v>
       </c>
       <c r="C81">
-        <v>0.07927729729700442</v>
+        <v>-0.09092183860284532</v>
       </c>
       <c r="D81">
-        <v>-0.02864026530226036</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07538458202681703</v>
+      </c>
+      <c r="E81">
+        <v>-0.09892025174664126</v>
+      </c>
+      <c r="F81">
+        <v>-0.04039323254173607</v>
+      </c>
+      <c r="G81">
+        <v>-0.04795029706437665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.06832792857548342</v>
+        <v>0.188057649735504</v>
       </c>
       <c r="C82">
-        <v>0.0400564632463779</v>
+        <v>-0.1324862011535821</v>
       </c>
       <c r="D82">
-        <v>-0.01817733557286706</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.212167789709365</v>
+      </c>
+      <c r="E82">
+        <v>-0.05628179100072499</v>
+      </c>
+      <c r="F82">
+        <v>-0.04189792425590133</v>
+      </c>
+      <c r="G82">
+        <v>0.005060958519933435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02844695516606496</v>
+        <v>0.02847301114231749</v>
       </c>
       <c r="C83">
-        <v>0.02061355641439945</v>
+        <v>-0.03375902703497959</v>
       </c>
       <c r="D83">
-        <v>0.01448187138762301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03249758566851312</v>
+      </c>
+      <c r="E83">
+        <v>0.007164464006367334</v>
+      </c>
+      <c r="F83">
+        <v>-0.05240393341299367</v>
+      </c>
+      <c r="G83">
+        <v>0.03024367162651001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2423481661647339</v>
+        <v>0.2112114864990598</v>
       </c>
       <c r="C85">
-        <v>0.1192164786584093</v>
+        <v>-0.1208303268275036</v>
       </c>
       <c r="D85">
-        <v>-0.1064158052757723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1035668014134201</v>
+      </c>
+      <c r="E85">
+        <v>-0.04144017279133402</v>
+      </c>
+      <c r="F85">
+        <v>0.01030046319273704</v>
+      </c>
+      <c r="G85">
+        <v>-0.1125443350618269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01284918018514795</v>
+        <v>0.015110697431902</v>
       </c>
       <c r="C86">
-        <v>0.02664903572476278</v>
+        <v>-0.02773315831046738</v>
       </c>
       <c r="D86">
-        <v>0.007684177433834128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07290128655780036</v>
+      </c>
+      <c r="E86">
+        <v>0.0003345907737387663</v>
+      </c>
+      <c r="F86">
+        <v>-0.1602034406186722</v>
+      </c>
+      <c r="G86">
+        <v>0.03469313064137649</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01360147182986395</v>
+        <v>0.02163808569512347</v>
       </c>
       <c r="C87">
-        <v>0.02468351999035999</v>
+        <v>-0.01597804856559438</v>
       </c>
       <c r="D87">
-        <v>0.07313742662634638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0963180052996223</v>
+      </c>
+      <c r="E87">
+        <v>-0.04545893796929081</v>
+      </c>
+      <c r="F87">
+        <v>-0.1113093889553084</v>
+      </c>
+      <c r="G87">
+        <v>0.05191506380282449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1031000704857263</v>
+        <v>0.09028052883683141</v>
       </c>
       <c r="C88">
-        <v>0.06665587347824825</v>
+        <v>-0.06017007912644481</v>
       </c>
       <c r="D88">
-        <v>-0.01602352714624548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.008728846168224304</v>
+      </c>
+      <c r="E88">
+        <v>-0.01304133232669115</v>
+      </c>
+      <c r="F88">
+        <v>-0.08137003713818955</v>
+      </c>
+      <c r="G88">
+        <v>0.03687302403828124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.194678637519987</v>
+        <v>0.2094939206719617</v>
       </c>
       <c r="C89">
-        <v>-0.3710606215938533</v>
+        <v>0.3729841511178896</v>
       </c>
       <c r="D89">
-        <v>-0.0176728847920258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01663328024792484</v>
+      </c>
+      <c r="E89">
+        <v>-0.01129398774972288</v>
+      </c>
+      <c r="F89">
+        <v>-0.07700158051631704</v>
+      </c>
+      <c r="G89">
+        <v>0.09180434971146152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1792211925958597</v>
+        <v>0.196119108892914</v>
       </c>
       <c r="C90">
-        <v>-0.3472024006647602</v>
+        <v>0.3229413964571615</v>
       </c>
       <c r="D90">
-        <v>0.02297022058795917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01207212742115735</v>
+      </c>
+      <c r="E90">
+        <v>-0.05245482677848912</v>
+      </c>
+      <c r="F90">
+        <v>-0.05130878728676615</v>
+      </c>
+      <c r="G90">
+        <v>0.02725329827927631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2022396872787526</v>
+        <v>0.1941463078583633</v>
       </c>
       <c r="C91">
-        <v>0.1078740589148505</v>
+        <v>-0.1307529673700184</v>
       </c>
       <c r="D91">
-        <v>-0.03922911624562699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08751428683380338</v>
+      </c>
+      <c r="E91">
+        <v>-0.09842523616602528</v>
+      </c>
+      <c r="F91">
+        <v>-0.05553167159885902</v>
+      </c>
+      <c r="G91">
+        <v>-0.04717557472454003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1755046456133547</v>
+        <v>0.1791633728308411</v>
       </c>
       <c r="C92">
-        <v>-0.2767250267545135</v>
+        <v>0.2786947379345754</v>
       </c>
       <c r="D92">
-        <v>0.01582448516068854</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005596460743289687</v>
+      </c>
+      <c r="E92">
+        <v>-0.076649521338318</v>
+      </c>
+      <c r="F92">
+        <v>-0.07336638330309439</v>
+      </c>
+      <c r="G92">
+        <v>0.02802370942669295</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1922906490806432</v>
+        <v>0.2171593299770085</v>
       </c>
       <c r="C93">
-        <v>-0.3302014671166493</v>
+        <v>0.3223209647689512</v>
       </c>
       <c r="D93">
-        <v>0.02248532207431297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005280020704080541</v>
+      </c>
+      <c r="E93">
+        <v>-0.03793556130673396</v>
+      </c>
+      <c r="F93">
+        <v>-0.058964047461464</v>
+      </c>
+      <c r="G93">
+        <v>-0.01202337953452014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2760930638712086</v>
+        <v>0.3421042227124562</v>
       </c>
       <c r="C94">
-        <v>0.1395557292734743</v>
+        <v>-0.1816872891240803</v>
       </c>
       <c r="D94">
-        <v>-0.06981327439447631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4143551708137838</v>
+      </c>
+      <c r="E94">
+        <v>-0.3015243920392993</v>
+      </c>
+      <c r="F94">
+        <v>0.4506026681864888</v>
+      </c>
+      <c r="G94">
+        <v>0.1985019882541533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08548029776326441</v>
+        <v>0.08131759349040057</v>
       </c>
       <c r="C95">
-        <v>0.08861991496949174</v>
+        <v>-0.08705598785178634</v>
       </c>
       <c r="D95">
-        <v>0.0560364677841422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1375816298623921</v>
+      </c>
+      <c r="E95">
+        <v>0.1484054768631894</v>
+      </c>
+      <c r="F95">
+        <v>-0.002050542654411211</v>
+      </c>
+      <c r="G95">
+        <v>0.9072714161884612</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2089735815765433</v>
+        <v>0.1927497792568896</v>
       </c>
       <c r="C98">
-        <v>0.0345036358936243</v>
+        <v>-0.03798469400468914</v>
       </c>
       <c r="D98">
-        <v>0.02677631429591056</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1433220001819986</v>
+      </c>
+      <c r="E98">
+        <v>0.1795933236428681</v>
+      </c>
+      <c r="F98">
+        <v>0.04206383193946567</v>
+      </c>
+      <c r="G98">
+        <v>-0.1026372548587663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01191318632341844</v>
+        <v>0.009092482832789033</v>
       </c>
       <c r="C101">
-        <v>0.02201608415376811</v>
+        <v>-0.02326071015605383</v>
       </c>
       <c r="D101">
-        <v>-0.01109226592056672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01278024166432597</v>
+      </c>
+      <c r="E101">
+        <v>-0.01226269883875676</v>
+      </c>
+      <c r="F101">
+        <v>-0.09840232305490776</v>
+      </c>
+      <c r="G101">
+        <v>0.004138516389501986</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1244092074176333</v>
+        <v>0.1259503088598834</v>
       </c>
       <c r="C102">
-        <v>0.07390761055332251</v>
+        <v>-0.09496183942900287</v>
       </c>
       <c r="D102">
-        <v>-0.03135787762234639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04611784084321459</v>
+      </c>
+      <c r="E102">
+        <v>-0.01176782140040968</v>
+      </c>
+      <c r="F102">
+        <v>-0.02903476682275077</v>
+      </c>
+      <c r="G102">
+        <v>-0.01437695900629666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
